--- a/biology/Botanique/Récolte_du_goémon/Récolte_du_goémon.xlsx
+++ b/biology/Botanique/Récolte_du_goémon/Récolte_du_goémon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9colte_du_go%C3%A9mon</t>
+          <t>Récolte_du_goémon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La récolte du goémon est une pratique rythmant l’économie de la Bretagne et constituant une branche professionnelle à part entière.
 Les goémons sont ramassés traditionnellement à la main sur les côtes lors d’une pêche à pied. Mais aujourd’hui, la principale méthode de ramassage des algues est la récolte mécanisée par des navires goémoniers embarqués en pleine mer.
-La récolte du goémon en Bretagne est une pratique inscrite à l’Inventaire du patrimoine culturel immatériel en France[1].
+La récolte du goémon en Bretagne est une pratique inscrite à l’Inventaire du patrimoine culturel immatériel en France.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9colte_du_go%C3%A9mon</t>
+          <t>Récolte_du_goémon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Lieux</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si le goémon est ramassé sur toutes les côtes bretonnes, la majeure partie de sa production se fait dans le Pays de Léon (Finistère Nord), entre la baie de Morlaix et la rade de Brest. Depuis le XIXe siècle, la Bretagne est la première région productrice d’algues en France.
 Le goémon est aussi ramassé dans d'autres régions comme la Normandie, la Vendée ou le Portugal, dans des bateaux appelés moliceiros.
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9colte_du_go%C3%A9mon</t>
+          <t>Récolte_du_goémon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,18 +560,56 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’usage des algues en Bretagne remonte sûrement à une période très ancienne (Néolithique), mais il n’est attesté qu’au Moyen Âge[2]. Par la suite, cette ressource maritime vient compléter l’économie agricole. Le goémon sert d’engrais, d’aliment pour les vaches, ou de combustible. Autrefois sur ces côtes nord du Finistère, durant l'été, on pouvait voir sur les dunes et les grèves l’activité des paysans goémoniers. Le travail se faisait en famille. Le marin allait récolter les laminaires sur les hauts fonds proches de la côte. À l'arrivée des bateaux sur la grève, les algues étaient transférées sur des charrettes et transportées sur les dunes pour le séchage. Ensuite, elles étaient mises en tas en attendant le brûlage qui se faisait dans des fours en pierre sur la dune.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’usage des algues en Bretagne remonte sûrement à une période très ancienne (Néolithique), mais il n’est attesté qu’au Moyen Âge. Par la suite, cette ressource maritime vient compléter l’économie agricole. Le goémon sert d’engrais, d’aliment pour les vaches, ou de combustible. Autrefois sur ces côtes nord du Finistère, durant l'été, on pouvait voir sur les dunes et les grèves l’activité des paysans goémoniers. Le travail se faisait en famille. Le marin allait récolter les laminaires sur les hauts fonds proches de la côte. À l'arrivée des bateaux sur la grève, les algues étaient transférées sur des charrettes et transportées sur les dunes pour le séchage. Ensuite, elles étaient mises en tas en attendant le brûlage qui se faisait dans des fours en pierre sur la dune.
 Mais dès le XVIIe siècle, on associe au goémon une production industrielle. La combustion des algues permet de produire de la soude pour la fabrication de verre, du savon et plus tard de l’iode. La production s’intensifie, et la main d’œuvre spécialisée dans le goémon s’accentue. La récolte devient une activité professionnelle à part entière. Les méthodes restent cependant assez archaïques jusque dans les années 1960.
-Dans les années 1970, le matériel et les techniques se modernisent, les bateaux sont désormais motorisés. Ils sont plus performants et offrent plus de rendement. Mais cela demande moins de main d’œuvre et le métier commence à décliner. Si en 1945, on comptait 3000 goémoniers, il n’en restait que 35 en 2013[3].
-Sous l'Ancien Régime
+Dans les années 1970, le matériel et les techniques se modernisent, les bateaux sont désormais motorisés. Ils sont plus performants et offrent plus de rendement. Mais cela demande moins de main d’œuvre et le métier commence à décliner. Si en 1945, on comptait 3000 goémoniers, il n’en restait que 35 en 2013.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Récolte_du_goémon</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/R%C3%A9colte_du_go%C3%A9mon</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Sous l'Ancien Régime</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Les règles variaient selon les endroits. Par exemple, l'usement de Léon est ainsi décrit (l'orthographe de l'époque a été respectée) : 
-« Les Armoriquains de Léon et de Dôlas (Daoulas), desquels les villages et tenues aboutissent sur la mer, sont en possession chacun en droit de ses terres, de jouir et de disposer du gouëmon qui se couppe des rochers et autres gouëmons que la mer rejette à bord. Bien entendu touttefois que tout le gouëmon flottant et qui n'est pas encore à sec appartient au premier qui le ramasse, soit par batteaux ou se hazardant de le devancer au Rivage[4]. »
-Depuis le XVIIe siècle, cette récolte était réglementée par l'ordonnance de la Marine de Colbert de 1681 : elle distinguait le goémon épave (constitué par les algues arrachées par la mer et rejetées sur le rivage) récoltable toute l'année, et le goémon de coupe (goémon vif), adhérant aux rochers, pouvant être récolté à la fin de l'hiver que par les habitants des paroisses sur le territoire desquelles se trouvent lesdits rochers[5],[6]. Mais cette règle était contournée, comme l'explique Antoine Favé : « Un étranger [à la paroisse], louant un lopin de terre à six livres l'an, devenant par là même riverain [de la mer] à Landunvez, y venant, pour la coupe, avec force chevaux et domestiques, et commettant l'injustice envers les habitants »[7].
+« Les Armoriquains de Léon et de Dôlas (Daoulas), desquels les villages et tenues aboutissent sur la mer, sont en possession chacun en droit de ses terres, de jouir et de disposer du gouëmon qui se couppe des rochers et autres gouëmons que la mer rejette à bord. Bien entendu touttefois que tout le gouëmon flottant et qui n'est pas encore à sec appartient au premier qui le ramasse, soit par batteaux ou se hazardant de le devancer au Rivage. »
+Depuis le XVIIe siècle, cette récolte était réglementée par l'ordonnance de la Marine de Colbert de 1681 : elle distinguait le goémon épave (constitué par les algues arrachées par la mer et rejetées sur le rivage) récoltable toute l'année, et le goémon de coupe (goémon vif), adhérant aux rochers, pouvant être récolté à la fin de l'hiver que par les habitants des paroisses sur le territoire desquelles se trouvent lesdits rochers,. Mais cette règle était contournée, comme l'explique Antoine Favé : « Un étranger [à la paroisse], louant un lopin de terre à six livres l'an, devenant par là même riverain [de la mer] à Landunvez, y venant, pour la coupe, avec force chevaux et domestiques, et commettant l'injustice envers les habitants ».
 Une déclaration du Roi datée du 30 octobre 1772 limite l'autorisation de coupe du goémon aux trois premiers mois de l'année et renouvelle l'interdit de la vente du goémon aux forains [étrangers à la paroisse], ce qui suscita maintes protestations de la part des habitants des communes littorales.
 Le curé Branellec, recteur de la paroisse de Landunvez (évêché de Léon), dans une lettre du 2 janvier 1775 adressée à l'évêque de Léon Jean-François de la Marche écrit (l'orthographe de l'époque a été respectée) :
-« C'est à travers des groupes de rochers que l'on tire le goémon de notre côte, et on va presque au galop, ou pour gagner sur la marée, ou pour augmenter sa récolte. (…) La déclaration du 30 octobre 1772[8] qui en fixe la couppe au mois de janvier, février ou mars, rend ce grand don de la Providence presque inutile à nos Armoriquains et en voici les raisons : 1° parceque on ne peut en ce temps sécher le goémon qui se perd en deux ou trois jours si on ne le sèche. 2° parceque c'est le temps ou les Armoriquains disposent leurs terres à être ensemencées. (…) Ils ne peuvent donc être alors à la grève. 3° parceque le mois de mars qui est le seul où l'on puisse sécher est aussi le mois ou les juments poulinent. Or il n'y a dans toutes les Armoriques presque que des juments. Il faudrait donc atteler des juments qui ont nouvellement pouliné ou sur le point de le faire au risque de perdre et les mères et les fruits par un charroi aussi difficile que précipité. (…) Un autre inconvénient est que pendant ces trois mois la saison est si dure que les plus robustes ne peuvent qu'à peine en supporter la rigueur et par conséquent les médiocres ne la supporteraient qu'en s'exposant à des inconvénients aussi tristes qu'ils seroient communs par la nécessité qu'il y auroit pour eux de les encourir ou de manquer de goëmon et en conséquence de pain même, parce que le goëmon seul en donne aux trois-quarts des Armoriquains[9] »
+« C'est à travers des groupes de rochers que l'on tire le goémon de notre côte, et on va presque au galop, ou pour gagner sur la marée, ou pour augmenter sa récolte. (…) La déclaration du 30 octobre 1772 qui en fixe la couppe au mois de janvier, février ou mars, rend ce grand don de la Providence presque inutile à nos Armoriquains et en voici les raisons : 1° parceque on ne peut en ce temps sécher le goémon qui se perd en deux ou trois jours si on ne le sèche. 2° parceque c'est le temps ou les Armoriquains disposent leurs terres à être ensemencées. (…) Ils ne peuvent donc être alors à la grève. 3° parceque le mois de mars qui est le seul où l'on puisse sécher est aussi le mois ou les juments poulinent. Or il n'y a dans toutes les Armoriques presque que des juments. Il faudrait donc atteler des juments qui ont nouvellement pouliné ou sur le point de le faire au risque de perdre et les mères et les fruits par un charroi aussi difficile que précipité. (…) Un autre inconvénient est que pendant ces trois mois la saison est si dure que les plus robustes ne peuvent qu'à peine en supporter la rigueur et par conséquent les médiocres ne la supporteraient qu'en s'exposant à des inconvénients aussi tristes qu'ils seroient communs par la nécessité qu'il y auroit pour eux de les encourir ou de manquer de goëmon et en conséquence de pain même, parce que le goëmon seul en donne aux trois-quarts des Armoriquains »
 </t>
         </is>
       </c>
